--- a/SSI ICL data 20Jan2020.xlsx
+++ b/SSI ICL data 20Jan2020.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Howard\Documents\Bristol\R for CEA\R data dive Belfast 2020\D4NMA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF44EBDE-DAA8-4A26-B342-A9C1BF6D5C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="24192" windowHeight="13152"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -560,7 +558,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,7 +693,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,9 +726,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,6 +778,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -938,21 +970,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J8" sqref="J8"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="34" max="34" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" customWidth="1"/>
+    <col min="34" max="34" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1111,7 +1143,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1169,7 +1201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -1227,7 +1259,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1288,7 +1320,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1346,7 +1378,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1404,7 +1436,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -1462,7 +1494,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -1563,7 +1595,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1621,7 +1653,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -1679,7 +1711,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1737,7 +1769,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1795,7 +1827,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -1853,7 +1885,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>90</v>
       </c>
@@ -1913,7 +1945,7 @@
       </c>
       <c r="AH15" s="3"/>
     </row>
-    <row r="16" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -1971,7 +2003,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2029,7 +2061,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2087,7 +2119,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2145,7 +2177,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2223,7 +2255,7 @@
       </c>
       <c r="AH20" s="1"/>
     </row>
-    <row r="21" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2281,7 +2313,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -2339,7 +2371,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -2397,7 +2429,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2456,7 +2488,7 @@
       </c>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -2514,7 +2546,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2572,7 +2604,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2630,7 +2662,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
@@ -2690,7 +2722,7 @@
       </c>
       <c r="AH28" s="3"/>
     </row>
-    <row r="29" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2748,7 +2780,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -2819,7 +2851,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -2890,7 +2922,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2948,7 +2980,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -3006,7 +3038,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -3064,7 +3096,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -3122,7 +3154,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -3180,7 +3212,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -3241,7 +3273,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -3299,7 +3331,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -3360,7 +3392,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -3434,7 +3466,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -3495,7 +3527,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3553,7 +3585,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>107</v>
       </c>
@@ -3611,7 +3643,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -3669,7 +3701,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -3727,7 +3759,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3785,7 +3817,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -3843,7 +3875,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -3901,7 +3933,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -3972,7 +4004,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>152</v>
       </c>
@@ -3980,12 +4012,12 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -4047,7 +4079,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -4103,7 +4135,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -4159,7 +4191,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -4204,7 +4236,7 @@
       </c>
       <c r="AI56" s="3"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -4245,7 +4277,7 @@
       </c>
       <c r="AI57" s="1"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -4317,7 +4349,7 @@
       </c>
       <c r="AI58" s="1"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -4373,7 +4405,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -4429,7 +4461,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -4485,7 +4517,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -4547,7 +4579,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -4603,13 +4635,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -4620,7 +4652,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -4629,41 +4661,41 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T44">
     <sortCondition ref="A2:A44"/>
   </sortState>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C73:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C73:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"antibiotic, antiseptic, nonantibacterial"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"not pulsatile, pulsatile, not known"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X53:X60 AB1:AB35 AB37:AB41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X53:X60 AB1:AB35 AB37:AB41" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"clean, clean-contaminated, contaminated, dirty, mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"adult, child, mixed, not reported"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AF1 AC53:AC62 AG1:AG49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AF1 AC53:AC62 AG1:AG49" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"high, low, unclear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y53:Y62 AC2:AC35 AC37:AC40 AC42:AC47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y53:Y62 AC2:AC35 AC37:AC40 AC42:AC47" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"adults, children, mixed, not reported/clear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z53:AB62 AB63 AD2:AF49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z53:AB62 AB63 AD2:AF49" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"low, unclear, high"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H53:H63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H53:H63" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"antibiotic, antiseptic, nonantibacterial, no irrigation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56 K53:K63 I1:I52 C2:C51 E53:E55 E57:E63 C64:C72 I64:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56 K53:K63 I1:I52 C2:C51 E53:E55 E57:E63 C64:C72 I64:I1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"antiseptic, antibiotic, nonantibacterial, no irrigation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"antiseptic,antibiotic,nonantibacterial, no irrigation, antibiotic/antiseptic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576 M1:M1048576 G1:G1048576 J1:J1048576 D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576 M1:M1048576 G1:G1048576 J1:J1048576 D1:D1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"cephalosporin, aminoglycoside, penicillin, other, NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4673,7 +4705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4681,16 +4713,16 @@
       <selection pane="topRight" activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="30" max="30" width="19.88671875" customWidth="1"/>
-    <col min="35" max="35" width="10.88671875" customWidth="1"/>
-    <col min="38" max="38" width="9.109375" style="3"/>
+    <col min="30" max="30" width="19.86328125" customWidth="1"/>
+    <col min="35" max="35" width="10.86328125" customWidth="1"/>
+    <col min="38" max="38" width="9.1328125" style="3"/>
     <col min="40" max="40" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4812,7 +4844,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4891,7 +4923,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -4970,7 +5002,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -5049,7 +5081,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -5128,7 +5160,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -5207,7 +5239,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -5286,7 +5318,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -5365,7 +5397,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -5487,7 +5519,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -5566,7 +5598,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -5645,7 +5677,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5724,7 +5756,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -5803,7 +5835,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -5882,7 +5914,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -5961,7 +5993,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -6040,7 +6072,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -6119,7 +6151,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -6198,7 +6230,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -6296,7 +6328,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -6375,7 +6407,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -6454,7 +6486,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -6533,7 +6565,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -6612,7 +6644,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -6691,7 +6723,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -6770,7 +6802,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -6849,7 +6881,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -6928,7 +6960,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -7020,7 +7052,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -7109,7 +7141,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -7188,7 +7220,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -7267,7 +7299,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -7343,7 +7375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -7422,7 +7454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -7501,7 +7533,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -7580,7 +7612,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -7656,7 +7688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -7735,7 +7767,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -7827,7 +7859,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -7906,7 +7938,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -7985,7 +8017,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
@@ -8061,7 +8093,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:43" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -8140,7 +8172,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -8219,7 +8251,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -8298,7 +8330,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -8377,7 +8409,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -8456,7 +8488,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -8548,149 +8580,149 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.45">
       <c r="AO48" s="1"/>
       <c r="AP48" s="1"/>
       <c r="AQ48" s="1"/>
     </row>
-    <row r="49" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AO49" s="1"/>
       <c r="AP49" s="1"/>
       <c r="AQ49" s="1"/>
     </row>
-    <row r="50" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
       <c r="AQ50" s="1"/>
     </row>
-    <row r="51" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
       <c r="AQ51" s="1"/>
     </row>
-    <row r="52" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AN52" s="1"/>
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
       <c r="AQ52" s="1"/>
     </row>
-    <row r="53" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AN53" s="1"/>
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
       <c r="AQ53" s="1"/>
     </row>
-    <row r="54" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AJ54" s="3"/>
       <c r="AN54" s="1"/>
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
       <c r="AQ54" s="1"/>
     </row>
-    <row r="55" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AJ55" s="1"/>
       <c r="AN55" s="1"/>
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
       <c r="AQ55" s="1"/>
     </row>
-    <row r="56" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AJ56" s="1"/>
       <c r="AN56" s="1"/>
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
       <c r="AQ56" s="1"/>
     </row>
-    <row r="57" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="57" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AN57" s="1"/>
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
       <c r="AQ57" s="1"/>
     </row>
-    <row r="58" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="58" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AN58" s="1"/>
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
       <c r="AQ58" s="1"/>
     </row>
-    <row r="59" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="59" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AN59" s="1"/>
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
       <c r="AQ59" s="1"/>
     </row>
-    <row r="60" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AN60" s="1"/>
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
       <c r="AQ60" s="1"/>
     </row>
-    <row r="61" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AN61" s="1"/>
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
       <c r="AQ61" s="1"/>
     </row>
-    <row r="62" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AN62" s="1"/>
       <c r="AO62" s="1"/>
       <c r="AP62" s="1"/>
       <c r="AQ62" s="1"/>
     </row>
-    <row r="63" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="63" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AN63" s="1"/>
       <c r="AO63" s="1"/>
       <c r="AP63" s="1"/>
       <c r="AQ63" s="1"/>
     </row>
-    <row r="64" spans="36:43" x14ac:dyDescent="0.3">
+    <row r="64" spans="36:43" x14ac:dyDescent="0.45">
       <c r="AN64" s="1"/>
     </row>
-    <row r="65" spans="40:40" x14ac:dyDescent="0.3">
+    <row r="65" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN65" s="1"/>
     </row>
-    <row r="66" spans="40:40" x14ac:dyDescent="0.3">
+    <row r="66" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN66" s="1"/>
     </row>
-    <row r="67" spans="40:40" x14ac:dyDescent="0.3">
+    <row r="67" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN67" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC35:AD38 AC2:AD33 AC40:AD45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC35:AD38 AC2:AD33 AC40:AD45" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"adults, children, mixed, not reported/clear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AG1 AH1:AH47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AG1 AH1:AH47" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"high, low, unclear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AD1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AD1" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"adult, child, mixed, not reported"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB35:AB39 AB1:AB33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB35:AB39 AB1:AB33" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"clean, clean-contaminated, contaminated, dirty, mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"not pulsatile, pulsatile, not known"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"antibiotic, antiseptic, nonantibacterial"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M47 G1:G47 J1:J47 D1:D47 P1:P47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M47 G1:G47 J1:J47 D1:D47 P1:P47" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>"cephalosporin, aminoglycoside, penicillin, other, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F47" xr:uid="{00000000-0002-0000-0100-000007000000}">
       <formula1>"antiseptic,antibiotic,nonantibacterial, no irrigation, antibiotic/antiseptic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I47 C2:C47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I47 C2:C47" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>"antiseptic, antibiotic, nonantibacterial, no irrigation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AG47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AG47" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>"low, unclear, high"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL1048576" xr:uid="{00000000-0002-0000-0100-00000A000000}">
       <formula1>"low, unclear, high, very high"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AK1048576" xr:uid="{00000000-0002-0000-0100-00000B000000}">
       <formula1>"high, unclear, low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8700,25 +8732,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" customWidth="1"/>
+    <col min="10" max="10" width="20.1328125" customWidth="1"/>
+    <col min="11" max="11" width="19.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8729,7 +8761,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -8740,12 +8772,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -8756,7 +8788,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -8767,7 +8799,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -8778,7 +8810,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -8789,12 +8821,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -8805,7 +8837,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -8816,7 +8848,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -8827,7 +8859,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -8838,17 +8870,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -8859,7 +8891,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -8870,7 +8902,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -8881,7 +8913,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -8892,7 +8924,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -8903,17 +8935,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -8924,7 +8956,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -8935,7 +8967,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -8946,7 +8978,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -8957,7 +8989,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -8968,17 +9000,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -8989,12 +9021,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -9005,7 +9037,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -9016,7 +9048,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -9027,7 +9059,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -9038,7 +9070,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -9049,7 +9081,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -9060,7 +9092,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -9071,7 +9103,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -9082,7 +9114,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -9093,13 +9125,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -9110,7 +9142,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -9121,7 +9153,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -9132,12 +9164,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -9148,7 +9180,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -9160,7 +9192,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="J2:K47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K47">
     <sortCondition ref="J2:J47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
